--- a/1.4.1/данные и обработка.xlsx
+++ b/1.4.1/данные и обработка.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
   <si>
     <t>tср</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>v^2</t>
+  </si>
+  <si>
+    <t>&lt;-g</t>
+  </si>
+  <si>
+    <t>сист</t>
+  </si>
+  <si>
+    <t>полная</t>
   </si>
 </sst>
 </file>
@@ -422,6 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -429,9 +443,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,8 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -575,12 +584,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1113,25 +1122,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
+              <a:t>Зависимость </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>u </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>v </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:rPr lang="ru-RU"/>
               <a:t>от </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>u</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>v</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1175,7 +1179,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>v от u</c:v>
+            <c:v>u от v</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1210,10 +1214,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:backward val="0.15000000000000002"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26749224528752086"/>
+                  <c:y val="0.44310353129078567"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1251,34 +1261,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>939.37339000000009</c:v>
+                  <c:v>0.93937339000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>827.95414097656271</c:v>
+                  <c:v>0.82795414097656272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720.88352644531244</c:v>
+                  <c:v>0.72088352644531239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>637.93626898871503</c:v>
+                  <c:v>0.63793626898871503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>657.25750406250006</c:v>
+                  <c:v>0.65725750406250005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>671.51114874999985</c:v>
+                  <c:v>0.67151114874999984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>602.35179513888897</c:v>
+                  <c:v>0.60235179513888892</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>585.95410256944444</c:v>
+                  <c:v>0.58595410256944447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>508.11911187065942</c:v>
+                  <c:v>0.50811911187065939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>432.32073537326397</c:v>
+                  <c:v>0.43232073537326399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,34 +1300,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>168100</c:v>
+                  <c:v>0.1681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137641</c:v>
+                  <c:v>0.13764099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109561</c:v>
+                  <c:v>0.10956100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84100</c:v>
+                  <c:v>8.4099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90601</c:v>
+                  <c:v>9.0601000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96100</c:v>
+                  <c:v>9.6099999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78400</c:v>
+                  <c:v>7.8400000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72900</c:v>
+                  <c:v>7.2900000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52900</c:v>
+                  <c:v>5.2899999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32400</c:v>
+                  <c:v>3.2399999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1335,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B877-4802-A301-2800FC86228F}"/>
+              <c16:uniqueId val="{00000000-7B8A-4102-8A75-3D8AAAB6A30E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1337,14 +1347,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="482106280"/>
-        <c:axId val="482106608"/>
+        <c:axId val="358761072"/>
+        <c:axId val="358757136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="482106280"/>
+        <c:axId val="358761072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1387,10 +1396,14 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>ц*</a:t>
+                  <a:t>ц</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>*</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
                   <a:t>T^2</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
@@ -1428,8 +1441,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1464,15 +1477,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482106608"/>
+        <c:crossAx val="358757136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482106608"/>
+        <c:axId val="358757136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1548,8 +1560,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1584,595 +1596,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482106280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>v </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>от </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>u</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>v от u</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:backward val="200"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$B$48:$B$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>939.37339000000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>827.95414097656271</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>720.88352644531244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>637.93626898871503</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>657.25750406250006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>671.51114874999985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>602.35179513888897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>585.95410256944444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>508.11911187065942</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>432.32073537326397</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$48:$C$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>168100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>137641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>109561</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72900</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F3A-4028-BFE4-9E28D65F61AC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="482106280"/>
-        <c:axId val="482106608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="482106280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>u = x</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>ц*</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>T^2</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482106608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="482106608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-20000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>v = a^2</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482106280"/>
+        <c:crossAx val="358761072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,46 +1718,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3405,522 +2789,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3955,20 +2823,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3978,38 +2846,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4305,10 +3141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4320,10 +3156,9 @@
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
@@ -4596,12 +3431,12 @@
         <f>4*$S$6*$S$6*(($S$2*$S$2/12 + POWER(B10*0.001,2))/(POWER(F10,2)*$S$5*C10*0.001))</f>
         <v>9.8253123749444171</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -4908,46 +3743,46 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -4980,19 +3815,19 @@
         <v>33</v>
       </c>
       <c r="D26" s="1">
-        <f>0.1/1000</f>
-        <v>1E-4</v>
+        <f>0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E27" si="4">D26/B26</f>
-        <v>1.3513513513513514E-3</v>
+        <f>D26/B26</f>
+        <v>6.7567567567567571E-3</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="G26">
         <f>SQRT(E26*E26 + E27*E27)</f>
-        <v>1.4371206845061077E-3</v>
+        <v>6.7744318770664655E-3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -5011,7 +3846,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E27" si="4">D27/B27</f>
         <v>4.8904538341158061E-4</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -5161,11 +3996,11 @@
       </c>
       <c r="O32" s="1">
         <f>P32*N32</f>
-        <v>7.6184135606060091E-2</v>
+        <v>0.10029658683019298</v>
       </c>
       <c r="P32" s="9">
         <f>SQRT(  4*M32*M32 + $G$26*$G$26 + G32*G32 + $G$27*$G$27  )</f>
-        <v>7.7315955593137003E-3</v>
+        <v>1.0178663040300445E-2</v>
       </c>
       <c r="R32" s="10">
         <f>POWER(N32-$N$42, 2)</f>
@@ -5215,7 +4050,7 @@
         <v>1.5493750000000002</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" ref="L33:L41" si="13">K33*M33</f>
+        <f t="shared" ref="L33:L40" si="13">K33*M33</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="M33" s="9">
@@ -5227,11 +4062,11 @@
       </c>
       <c r="O33" s="1">
         <f t="shared" ref="O33:O41" si="15">P33*N33</f>
-        <v>7.6512067126791108E-2</v>
+        <v>0.10042445997739662</v>
       </c>
       <c r="P33" s="9">
         <f t="shared" ref="P33:P41" si="16">SQRT(  4*M33*M33 + $G$26*$G$26 + G33*G33 + $G$27*$G$27  )</f>
-        <v>7.7872401616364845E-3</v>
+        <v>1.0220994116532069E-2</v>
       </c>
       <c r="R33" s="10">
         <f t="shared" ref="R33:R41" si="17">POWER(N33-$N$42, 2)</f>
@@ -5293,11 +4128,11 @@
       </c>
       <c r="O34" s="1">
         <f t="shared" si="15"/>
-        <v>7.733634906500847E-2</v>
+        <v>0.10116196101638956</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="16"/>
-        <v>7.8508825526783562E-3</v>
+        <v>1.0269565144207831E-2</v>
       </c>
       <c r="R34" s="10">
         <f t="shared" si="17"/>
@@ -5359,11 +4194,11 @@
       </c>
       <c r="O35" s="1">
         <f t="shared" si="15"/>
-        <v>7.6229225308853441E-2</v>
+        <v>9.951154126258363E-2</v>
       </c>
       <c r="P35" s="9">
         <f t="shared" si="16"/>
-        <v>7.8894378595506433E-3</v>
+        <v>1.0299069916011348E-2</v>
       </c>
       <c r="R35" s="10">
         <f t="shared" si="17"/>
@@ -5425,11 +4260,11 @@
       </c>
       <c r="O36" s="1">
         <f t="shared" si="15"/>
-        <v>7.6785679616582711E-2</v>
+        <v>0.10027864775325607</v>
       </c>
       <c r="P36" s="9">
         <f t="shared" si="16"/>
-        <v>7.8816954891106246E-3</v>
+        <v>1.0293140200067505E-2</v>
       </c>
       <c r="R36" s="10">
         <f t="shared" si="17"/>
@@ -5491,11 +4326,11 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" si="15"/>
-        <v>7.7513610708429034E-2</v>
+        <v>0.10123916836429687</v>
       </c>
       <c r="P37" s="9">
         <f t="shared" si="16"/>
-        <v>7.8798373435920201E-3</v>
+        <v>1.029171744446214E-2</v>
       </c>
       <c r="R37" s="10">
         <f t="shared" si="17"/>
@@ -5557,11 +4392,11 @@
       </c>
       <c r="O38" s="1">
         <f t="shared" si="15"/>
-        <v>7.8399216241180819E-2</v>
+        <v>0.10212075405146957</v>
       </c>
       <c r="P38" s="9">
         <f t="shared" si="16"/>
-        <v>7.9314314591574613E-3</v>
+        <v>1.0331273705913111E-2</v>
       </c>
       <c r="R38" s="10">
         <f t="shared" si="17"/>
@@ -5623,11 +4458,11 @@
       </c>
       <c r="O39" s="1">
         <f t="shared" si="15"/>
-        <v>7.7934761209897632E-2</v>
+        <v>0.10147177557582267</v>
       </c>
       <c r="P39" s="9">
         <f t="shared" si="16"/>
-        <v>7.9398133408628592E-3</v>
+        <v>1.0337709963184439E-2</v>
       </c>
       <c r="R39" s="10">
         <f t="shared" si="17"/>
@@ -5689,11 +4524,11 @@
       </c>
       <c r="O40" s="1">
         <f t="shared" si="15"/>
-        <v>7.9075793624470578E-2</v>
+        <v>0.10258049340433546</v>
       </c>
       <c r="P40" s="9">
         <f t="shared" si="16"/>
-        <v>8.011519417658295E-3</v>
+        <v>1.0392884814847844E-2</v>
       </c>
       <c r="R40" s="10">
         <f t="shared" si="17"/>
@@ -5755,11 +4590,11 @@
       </c>
       <c r="O41" s="1">
         <f t="shared" si="15"/>
-        <v>8.0159235446206872E-2</v>
+        <v>0.10335479976548846</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="16"/>
-        <v>8.1337412690555486E-3</v>
+        <v>1.0487390448873177E-2</v>
       </c>
       <c r="R41" s="10">
         <f t="shared" si="17"/>
@@ -5767,21 +4602,21 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="14">
         <f>AVERAGE(N32:N41)</f>
         <v>9.8196729259670406</v>
@@ -5796,19 +4631,19 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -5838,16 +4673,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="1">
-        <f>F9*F9*C9</f>
-        <v>939.37339000000009</v>
+        <f>F9*F9*C9/1000</f>
+        <v>0.93937339000000009</v>
       </c>
       <c r="C48" s="1">
-        <f>B9*B9</f>
-        <v>168100</v>
+        <f>B9*B9/1000/1000</f>
+        <v>0.1681</v>
       </c>
       <c r="D48" s="1">
         <f>E48*B48</f>
-        <v>4.1749048770813664</v>
+        <v>4.1749048770813669E-3</v>
       </c>
       <c r="E48" s="1">
         <f>SQRT(  4 * POWER(J32,2) + POWER(G32,2)  )</f>
@@ -5855,7 +4690,7 @@
       </c>
       <c r="F48" s="1">
         <f>G48*C48</f>
-        <v>289.9137802864845</v>
+        <v>2.899137802864845E-4</v>
       </c>
       <c r="G48" s="1">
         <f>D32*SQRT(2)</f>
@@ -5867,16 +4702,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ref="B49:B57" si="18">F10*F10*C10</f>
-        <v>827.95414097656271</v>
+        <f t="shared" ref="B49:B57" si="18">F10*F10*C10/1000</f>
+        <v>0.82795414097656272</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" ref="C49:C57" si="19">B10*B10</f>
-        <v>137641</v>
+        <f t="shared" ref="C49:C56" si="19">B10*B10/1000/1000</f>
+        <v>0.13764099999999999</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ref="D49:D57" si="20">E49*B49</f>
-        <v>3.7592941598239751</v>
+        <v>3.7592941598239751E-3</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" ref="E49:E56" si="21">SQRT(  4 * POWER(J33,2) + POWER(G33,2)  )</f>
@@ -5884,7 +4719,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ref="F49:F57" si="22">G49*C49</f>
-        <v>262.33661582020915</v>
+        <v>2.6233661582020912E-4</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" ref="G49:G57" si="23">D33*SQRT(2)</f>
@@ -5897,15 +4732,15 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="18"/>
-        <v>720.88352644531244</v>
+        <v>0.72088352644531239</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="19"/>
-        <v>109561</v>
+        <v>0.10956100000000001</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="20"/>
-        <v>3.351220042776561</v>
+        <v>3.3512200427765607E-3</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="21"/>
@@ -5913,7 +4748,7 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="22"/>
-        <v>234.05234457274724</v>
+        <v>2.3405234457274726E-4</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="23"/>
@@ -5926,15 +4761,15 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" si="18"/>
-        <v>637.93626898871503</v>
+        <v>0.63793626898871503</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="19"/>
-        <v>84100</v>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="20"/>
-        <v>3.0069688805962125</v>
+        <v>3.0069688805962123E-3</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="21"/>
@@ -5942,7 +4777,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="22"/>
-        <v>205.06096654409882</v>
+        <v>2.0506096654409879E-4</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="23"/>
@@ -5955,15 +4790,15 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" si="18"/>
-        <v>657.25750406250006</v>
+        <v>0.65725750406250005</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="19"/>
-        <v>90601</v>
+        <v>9.0601000000000001E-2</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="20"/>
-        <v>3.0895163381292239</v>
+        <v>3.0895163381292239E-3</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="21"/>
@@ -5971,7 +4806,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="22"/>
-        <v>212.83914113715082</v>
+        <v>2.1283914113715083E-4</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="23"/>
@@ -5984,15 +4819,15 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" si="18"/>
-        <v>671.51114874999985</v>
+        <v>0.67151114874999984</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="19"/>
-        <v>96100</v>
+        <v>9.6099999999999991E-2</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="20"/>
-        <v>3.1544246540458252</v>
+        <v>3.1544246540458247E-3</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="21"/>
@@ -6000,7 +4835,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="22"/>
-        <v>219.20310216782974</v>
+        <v>2.1920310216782973E-4</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="23"/>
@@ -6013,15 +4848,15 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" si="18"/>
-        <v>602.35179513888897</v>
+        <v>0.60235179513888892</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="19"/>
-        <v>78400</v>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="20"/>
-        <v>2.8813760592463984</v>
+        <v>2.8813760592463983E-3</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="21"/>
@@ -6029,7 +4864,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="22"/>
-        <v>197.98989873223331</v>
+        <v>1.9798989873223333E-4</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="23"/>
@@ -6042,15 +4877,15 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" si="18"/>
-        <v>585.95410256944444</v>
+        <v>0.58595410256944447</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="19"/>
-        <v>72900</v>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="20"/>
-        <v>2.8110728999566543</v>
+        <v>2.8110728999566547E-3</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="21"/>
@@ -6058,7 +4893,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="22"/>
-        <v>190.91883092036784</v>
+        <v>1.9091883092036785E-4</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="23"/>
@@ -6071,15 +4906,15 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" si="18"/>
-        <v>508.11911187065942</v>
+        <v>0.50811911187065939</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="19"/>
-        <v>52900</v>
+        <v>5.2899999999999996E-2</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="20"/>
-        <v>2.4975037752879907</v>
+        <v>2.4975037752879904E-3</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="21"/>
@@ -6087,7 +4922,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="22"/>
-        <v>162.63455967290594</v>
+        <v>1.6263455967290594E-4</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="23"/>
@@ -6100,15 +4935,15 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" si="18"/>
-        <v>432.32073537326397</v>
+        <v>0.43232073537326399</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="19"/>
-        <v>32400</v>
+        <f>B18*B18/1000/1000</f>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="20"/>
-        <v>2.2100188282229323</v>
+        <v>2.2100188282229323E-3</v>
       </c>
       <c r="E57" s="1">
         <f>SQRT(  4 * POWER(J41,2) + POWER(G41,2)  )</f>
@@ -6116,29 +4951,40 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="22"/>
-        <v>127.27922061357856</v>
+        <v>1.2727922061357857E-4</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="23"/>
         <v>3.9283710065919309E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="15">
+        <f>AVERAGE(E48:E57)</f>
+        <v>4.7353442433670694E-3</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15">
+        <f t="shared" ref="F58:G58" si="24">AVERAGE(G48:G57)</f>
+        <v>2.4982397654643006E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -6148,39 +4994,39 @@
       <c r="C69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <f>F9*F9*C9</f>
-        <v>939.37339000000009</v>
+        <f>F9*F9*C9/1000</f>
+        <v>0.93937339000000009</v>
       </c>
       <c r="C70" s="1">
-        <f>B9*B9</f>
-        <v>168100</v>
+        <f>B9*B9/1000/1000</f>
+        <v>0.1681</v>
       </c>
       <c r="D70" s="1">
         <f>B70*C70</f>
-        <v>157908666.85900003</v>
+        <v>0.15790866685900001</v>
       </c>
       <c r="E70" s="1">
         <f>B70*B70</f>
-        <v>882422.3658400923</v>
+        <v>0.88242236584009226</v>
       </c>
       <c r="F70" s="1">
         <f>C70*C70</f>
-        <v>28257610000</v>
+        <v>2.8257609999999999E-2</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="1" t="s">
@@ -6188,44 +5034,47 @@
       </c>
       <c r="I70" s="1">
         <f>(  D80 - B80*C80  )/(  E80 - B80*B80  )</f>
-        <v>267.30602320816467</v>
+        <v>0.2673060232081641</v>
       </c>
       <c r="K70">
-        <f>ATAN(I70/1000)</f>
-        <v>0.26119920631215204</v>
+        <f>ATAN(I70)</f>
+        <v>0.26119920631215154</v>
       </c>
       <c r="L70">
         <f>4*S6*S6</f>
         <v>39.478350912399996</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="12">
         <f>L70*K70</f>
-        <v>10.311713924831503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10.311713924831484</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" ref="B71:B79" si="24">F10*F10*C10</f>
-        <v>827.95414097656271</v>
+        <f t="shared" ref="B71:B79" si="25">F10*F10*C10/1000</f>
+        <v>0.82795414097656272</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71:C79" si="25">B10*B10</f>
-        <v>137641</v>
+        <f t="shared" ref="C71:C79" si="26">B10*B10/1000/1000</f>
+        <v>0.13764099999999999</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" ref="D71:D79" si="26">B71*C71</f>
-        <v>113960435.91815507</v>
+        <f t="shared" ref="D71:D79" si="27">B71*C71</f>
+        <v>0.11396043591815506</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" ref="E71:E79" si="27">B71*B71</f>
-        <v>685508.05956023792</v>
+        <f t="shared" ref="E71:E79" si="28">B71*B71</f>
+        <v>0.68550805956023786</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ref="F71:F79" si="28">C71*C71</f>
-        <v>18945044881</v>
+        <f t="shared" ref="F71:F79" si="29">C71*C71</f>
+        <v>1.8945044880999996E-2</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="1" t="s">
@@ -6233,32 +5082,32 @@
       </c>
       <c r="I71" s="1">
         <f>C80 - I70*B80</f>
-        <v>-83714.943363712067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-8.3714943363711686E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="24"/>
-        <v>720.88352644531244</v>
+        <f t="shared" si="25"/>
+        <v>0.72088352644531239</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="25"/>
-        <v>109561</v>
+        <f t="shared" si="26"/>
+        <v>0.10956100000000001</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="26"/>
-        <v>78980720.040874884</v>
+        <f t="shared" si="27"/>
+        <v>7.8980720040874877E-2</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="27"/>
-        <v>519673.05870022951</v>
+        <f t="shared" si="28"/>
+        <v>0.5196730587002294</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="28"/>
-        <v>12003612721</v>
+        <f t="shared" si="29"/>
+        <v>1.2003612721000001E-2</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="1" t="s">
@@ -6266,32 +5115,46 @@
       </c>
       <c r="I72" s="1">
         <f xml:space="preserve"> SQRT(  (F80-C80*C80)/(E80-B80*B80) - I70*I70  ) / SQRT(10)</f>
-        <v>2.5184015809461315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.5184015809498377E-3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72">
+        <f>I70*SQRT(E58*E58+G58*G58)</f>
+        <v>1.4311407470353772E-3</v>
+      </c>
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72">
+        <f>SQRT(  I72*I72 + K72*K72  )</f>
+        <v>2.8966377683023502E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="24"/>
-        <v>637.93626898871503</v>
+        <f t="shared" si="25"/>
+        <v>0.63793626898871503</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="25"/>
-        <v>84100</v>
+        <f t="shared" si="26"/>
+        <v>8.4099999999999994E-2</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="26"/>
-        <v>53650440.221950933</v>
+        <f t="shared" si="27"/>
+        <v>5.365044022195093E-2</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="27"/>
-        <v>406962.68329124217</v>
+        <f t="shared" si="28"/>
+        <v>0.40696268329124219</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="28"/>
-        <v>7072810000</v>
+        <f t="shared" si="29"/>
+        <v>7.0728099999999988E-3</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="1" t="s">
@@ -6299,32 +5162,39 @@
       </c>
       <c r="I73" s="1">
         <f>I72/I70</f>
-        <v>9.4214172607136708E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.4214172607275555E-3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73">
+        <f>SQRT(E58*E58+G58*G58)</f>
+        <v>5.3539412612520097E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>5</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="24"/>
-        <v>657.25750406250006</v>
+        <f t="shared" si="25"/>
+        <v>0.65725750406250005</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="25"/>
-        <v>90601</v>
+        <f t="shared" si="26"/>
+        <v>9.0601000000000001E-2</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="26"/>
-        <v>59548187.125566565</v>
+        <f t="shared" si="27"/>
+        <v>5.9548187125566567E-2</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="27"/>
-        <v>431987.4266464673</v>
+        <f t="shared" si="28"/>
+        <v>0.43198742664646728</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="28"/>
-        <v>8208541201</v>
+        <f t="shared" si="29"/>
+        <v>8.2085412009999994E-3</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="1" t="s">
@@ -6332,32 +5202,46 @@
       </c>
       <c r="I74" s="1">
         <f>I72*SQRT( E80 - B80*B80 )</f>
-        <v>351.02289669646564</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.5102289669698244E-4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="10">
+        <f>I71*K73</f>
+        <v>-4.4820488945835111E-4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>78</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M73:M74" si="30">SQRT(  I74*I74 + K74*K74  )</f>
+        <v>5.6930193828926413E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>6</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="24"/>
-        <v>671.51114874999985</v>
+        <f t="shared" si="25"/>
+        <v>0.67151114874999984</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="25"/>
-        <v>96100</v>
+        <f t="shared" si="26"/>
+        <v>9.6099999999999991E-2</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="26"/>
-        <v>64532221.394874983</v>
+        <f t="shared" si="27"/>
+        <v>6.4532221394874981E-2</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="27"/>
-        <v>450927.22289554443</v>
+        <f t="shared" si="28"/>
+        <v>0.45092722289554443</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="28"/>
-        <v>9235210000</v>
+        <f t="shared" si="29"/>
+        <v>9.2352099999999989E-3</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="1" t="s">
@@ -6365,138 +5249,1255 @@
       </c>
       <c r="I75" s="1">
         <f>I74/I71</f>
-        <v>-4.1930733342480358E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-4.1930733342542287E-3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75">
+        <f>SQRT(E58*E58+G58*G58)</f>
+        <v>5.3539412612520097E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="24"/>
-        <v>602.35179513888897</v>
+        <f t="shared" si="25"/>
+        <v>0.60235179513888892</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="25"/>
-        <v>78400</v>
+        <f t="shared" si="26"/>
+        <v>7.8400000000000011E-2</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="26"/>
-        <v>47224380.738888897</v>
+        <f t="shared" si="27"/>
+        <v>4.7224380738888898E-2</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="27"/>
-        <v>362827.68510704208</v>
+        <f t="shared" si="28"/>
+        <v>0.362827685107042</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="28"/>
-        <v>6146560000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>6.1465600000000014E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>8</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="24"/>
-        <v>585.95410256944444</v>
+        <f t="shared" si="25"/>
+        <v>0.58595410256944447</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="25"/>
-        <v>72900</v>
+        <f t="shared" si="26"/>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="26"/>
-        <v>42716054.077312499</v>
+        <f t="shared" si="27"/>
+        <v>4.2716054077312507E-2</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="27"/>
-        <v>343342.21031796304</v>
+        <f t="shared" si="28"/>
+        <v>0.34334221031796303</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="28"/>
-        <v>5314410000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>5.3144100000000012E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>9</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="24"/>
-        <v>508.11911187065942</v>
+        <f t="shared" si="25"/>
+        <v>0.50811911187065939</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="25"/>
-        <v>52900</v>
+        <f t="shared" si="26"/>
+        <v>5.2899999999999996E-2</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="26"/>
-        <v>26879501.017957885</v>
+        <f t="shared" si="27"/>
+        <v>2.6879501017957878E-2</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="27"/>
-        <v>258185.03184822769</v>
+        <f t="shared" si="28"/>
+        <v>0.25818503184822766</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="28"/>
-        <v>2798410000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>2.7984099999999994E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>10</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="24"/>
-        <v>432.32073537326397</v>
+        <f t="shared" si="25"/>
+        <v>0.43232073537326399</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="25"/>
-        <v>32400</v>
+        <f t="shared" si="26"/>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="26"/>
-        <v>14007191.826093752</v>
+        <f t="shared" si="27"/>
+        <v>1.4007191826093753E-2</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="27"/>
-        <v>186901.21823367974</v>
+        <f t="shared" si="28"/>
+        <v>0.18690121823367975</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="28"/>
-        <v>1049760000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>1.0497599999999998E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="16">
         <f>AVERAGE(B70:B79)</f>
-        <v>658.3661724175347</v>
-      </c>
-      <c r="C80" s="27">
-        <f t="shared" ref="C80:F80" si="29">AVERAGE(C70:C79)</f>
-        <v>92270.3</v>
-      </c>
-      <c r="D80" s="27">
-        <f t="shared" si="29"/>
-        <v>65940779.92206756</v>
-      </c>
-      <c r="E80" s="27">
-        <f t="shared" si="29"/>
-        <v>452873.69624407252</v>
-      </c>
-      <c r="F80" s="27">
-        <f t="shared" si="29"/>
-        <v>9903196880.2999992</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="F81" s="26"/>
+        <v>0.6583661724175347</v>
+      </c>
+      <c r="C80" s="16">
+        <f t="shared" ref="C80:F80" si="31">AVERAGE(C70:C79)</f>
+        <v>9.22703E-2</v>
+      </c>
+      <c r="D80" s="16">
+        <f t="shared" si="31"/>
+        <v>6.5940779922067552E-2</v>
+      </c>
+      <c r="E80" s="16">
+        <f t="shared" si="31"/>
+        <v>0.45287369624407259</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="31"/>
+        <v>9.9031968802999991E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" t="s">
+        <v>39</v>
+      </c>
+      <c r="M90" t="s">
+        <v>40</v>
+      </c>
+      <c r="N90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O90" t="s">
+        <v>44</v>
+      </c>
+      <c r="P90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>0.41</v>
+      </c>
+      <c r="C91">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D91">
+        <v>1.2195121951219512E-3</v>
+      </c>
+      <c r="E91">
+        <v>0.38110000000000005</v>
+      </c>
+      <c r="F91">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G91">
+        <v>1.311991603253739E-3</v>
+      </c>
+      <c r="H91">
+        <v>75.36</v>
+      </c>
+      <c r="I91">
+        <v>0.16</v>
+      </c>
+      <c r="J91">
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="K91">
+        <v>1.57</v>
+      </c>
+      <c r="L91">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M91">
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="N91">
+        <v>9.8536110718164132</v>
+      </c>
+      <c r="O91">
+        <v>7.6184135606060091E-2</v>
+      </c>
+      <c r="P91">
+        <v>7.7315955593137003E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>0.371</v>
+      </c>
+      <c r="C92">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D92">
+        <v>1.3477088948787063E-3</v>
+      </c>
+      <c r="E92">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="F92">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G92">
+        <v>1.4496955639315744E-3</v>
+      </c>
+      <c r="H92">
+        <v>74.37</v>
+      </c>
+      <c r="I92">
+        <v>0.16</v>
+      </c>
+      <c r="J92">
+        <v>2.1514051364797632E-3</v>
+      </c>
+      <c r="K92">
+        <v>1.5493750000000002</v>
+      </c>
+      <c r="L92">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M92">
+        <v>2.1514051364797632E-3</v>
+      </c>
+      <c r="N92">
+        <v>9.8253123749444171</v>
+      </c>
+      <c r="O92">
+        <v>7.6512067126791108E-2</v>
+      </c>
+      <c r="P92">
+        <v>7.7872401616364845E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C93">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D93">
+        <v>1.5105740181268882E-3</v>
+      </c>
+      <c r="E93">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="F93">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G93">
+        <v>1.6249593760155998E-3</v>
+      </c>
+      <c r="H93">
+        <v>73.47</v>
+      </c>
+      <c r="I93">
+        <v>0.16</v>
+      </c>
+      <c r="J93">
+        <v>2.1777596297808629E-3</v>
+      </c>
+      <c r="K93">
+        <v>1.5306249999999999</v>
+      </c>
+      <c r="L93">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="M93">
+        <v>2.1777596297808629E-3</v>
+      </c>
+      <c r="N93">
+        <v>9.850656731404662</v>
+      </c>
+      <c r="O93">
+        <v>7.733634906500847E-2</v>
+      </c>
+      <c r="P93">
+        <v>7.8508825526783562E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C94">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D94">
+        <v>1.724137931034483E-3</v>
+      </c>
+      <c r="E94">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F94">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G94">
+        <v>1.8552875695732837E-3</v>
+      </c>
+      <c r="H94">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="I94">
+        <v>0.16</v>
+      </c>
+      <c r="J94">
+        <v>2.1665538253215978E-3</v>
+      </c>
+      <c r="K94">
+        <v>1.5385416666666665</v>
+      </c>
+      <c r="L94">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="M94">
+        <v>2.1665538253215978E-3</v>
+      </c>
+      <c r="N94">
+        <v>9.6621871755505797</v>
+      </c>
+      <c r="O94">
+        <v>7.6229225308853441E-2</v>
+      </c>
+      <c r="P94">
+        <v>7.8894378595506433E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C95">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D95">
+        <v>1.6611295681063123E-3</v>
+      </c>
+      <c r="E95">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="F95">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G95">
+        <v>1.7895490336435221E-3</v>
+      </c>
+      <c r="H95">
+        <v>73.62</v>
+      </c>
+      <c r="I95">
+        <v>0.16</v>
+      </c>
+      <c r="J95">
+        <v>2.1733224667209996E-3</v>
+      </c>
+      <c r="K95">
+        <v>1.5337500000000002</v>
+      </c>
+      <c r="L95">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M95">
+        <v>2.1733224667209996E-3</v>
+      </c>
+      <c r="N95">
+        <v>9.7422794020233408</v>
+      </c>
+      <c r="O95">
+        <v>7.6785679616582711E-2</v>
+      </c>
+      <c r="P95">
+        <v>7.8816954891106246E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>0.31</v>
+      </c>
+      <c r="C96">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D96">
+        <v>1.6129032258064516E-3</v>
+      </c>
+      <c r="E96">
+        <v>0.2878</v>
+      </c>
+      <c r="F96">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G96">
+        <v>1.7373175816539264E-3</v>
+      </c>
+      <c r="H96">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="I96">
+        <v>0.16</v>
+      </c>
+      <c r="J96">
+        <v>2.1822149481723952E-3</v>
+      </c>
+      <c r="K96">
+        <v>1.5274999999999999</v>
+      </c>
+      <c r="L96">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M96">
+        <v>2.1822149481723952E-3</v>
+      </c>
+      <c r="N96">
+        <v>9.8369556792265573</v>
+      </c>
+      <c r="O96">
+        <v>7.7513610708429034E-2</v>
+      </c>
+      <c r="P96">
+        <v>7.8798373435920201E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C97">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D97">
+        <v>1.7857142857142857E-3</v>
+      </c>
+      <c r="E97">
+        <v>0.26</v>
+      </c>
+      <c r="F97">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G97">
+        <v>1.923076923076923E-3</v>
+      </c>
+      <c r="H97">
+        <v>73.06</v>
+      </c>
+      <c r="I97">
+        <v>0.16</v>
+      </c>
+      <c r="J97">
+        <v>2.1899808376676703E-3</v>
+      </c>
+      <c r="K97">
+        <v>1.5220833333333335</v>
+      </c>
+      <c r="L97">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M97">
+        <v>2.1899808376676703E-3</v>
+      </c>
+      <c r="N97">
+        <v>9.8846238090682554</v>
+      </c>
+      <c r="O97">
+        <v>7.8399216241180819E-2</v>
+      </c>
+      <c r="P97">
+        <v>7.9314314591574613E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0.27</v>
+      </c>
+      <c r="C98">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D98">
+        <v>1.8518518518518517E-3</v>
+      </c>
+      <c r="E98">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="F98">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G98">
+        <v>1.9904458598726119E-3</v>
+      </c>
+      <c r="H98">
+        <v>73.31</v>
+      </c>
+      <c r="I98">
+        <v>0.16</v>
+      </c>
+      <c r="J98">
+        <v>2.1825126176510706E-3</v>
+      </c>
+      <c r="K98">
+        <v>1.5272916666666667</v>
+      </c>
+      <c r="L98">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="M98">
+        <v>2.1825126176510706E-3</v>
+      </c>
+      <c r="N98">
+        <v>9.8156918637873254</v>
+      </c>
+      <c r="O98">
+        <v>7.7934761209897632E-2</v>
+      </c>
+      <c r="P98">
+        <v>7.9398133408628592E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>0.23</v>
+      </c>
+      <c r="C99">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D99">
+        <v>2.1739130434782609E-3</v>
+      </c>
+      <c r="E99">
+        <v>0.2135</v>
+      </c>
+      <c r="F99">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G99">
+        <v>2.34192037470726E-3</v>
+      </c>
+      <c r="H99">
+        <v>74.049999999999983</v>
+      </c>
+      <c r="I99">
+        <v>0.16</v>
+      </c>
+      <c r="J99">
+        <v>2.1607022282241735E-3</v>
+      </c>
+      <c r="K99">
+        <v>1.5427083333333329</v>
+      </c>
+      <c r="L99">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M99">
+        <v>2.1607022282241735E-3</v>
+      </c>
+      <c r="N99">
+        <v>9.870261744629687</v>
+      </c>
+      <c r="O99">
+        <v>7.9075793624470578E-2</v>
+      </c>
+      <c r="P99">
+        <v>8.011519417658295E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>0.18</v>
+      </c>
+      <c r="C100">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D100">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E100">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F100">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G100">
+        <v>2.9940119760479039E-3</v>
+      </c>
+      <c r="H100">
+        <v>77.23</v>
+      </c>
+      <c r="I100">
+        <v>0.16</v>
+      </c>
+      <c r="J100">
+        <v>2.071733782208986E-3</v>
+      </c>
+      <c r="K100">
+        <v>1.6089583333333335</v>
+      </c>
+      <c r="L100">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="M100">
+        <v>2.071733782208986E-3</v>
+      </c>
+      <c r="N100">
+        <v>9.8551494072191677</v>
+      </c>
+      <c r="O100">
+        <v>8.0159235446206872E-2</v>
+      </c>
+      <c r="P100">
+        <v>8.1337412690555486E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1">
+        <v>7</v>
+      </c>
+      <c r="I102" s="1">
+        <v>8</v>
+      </c>
+      <c r="J102" s="1">
+        <v>9</v>
+      </c>
+      <c r="K102" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G103" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="K103" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K104" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="9">
+        <v>1.2195121951219512E-3</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1.3477088948787063E-3</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1.5105740181268882E-3</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1.724137931034483E-3</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1.6611295681063123E-3</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1.6129032258064516E-3</v>
+      </c>
+      <c r="H105" s="9">
+        <v>1.7857142857142857E-3</v>
+      </c>
+      <c r="I105" s="9">
+        <v>1.8518518518518517E-3</v>
+      </c>
+      <c r="J105" s="9">
+        <v>2.1739130434782609E-3</v>
+      </c>
+      <c r="K105" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="8">
+        <v>0.38110000000000005</v>
+      </c>
+      <c r="C106" s="8">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F106" s="8">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="G106" s="8">
+        <v>0.2878</v>
+      </c>
+      <c r="H106" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="I106" s="8">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="J106" s="8">
+        <v>0.2135</v>
+      </c>
+      <c r="K106" s="8">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K107" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="9">
+        <v>1.311991603253739E-3</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1.4496955639315744E-3</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1.6249593760155998E-3</v>
+      </c>
+      <c r="E108" s="9">
+        <v>1.8552875695732837E-3</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1.7895490336435221E-3</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1.7373175816539264E-3</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1.923076923076923E-3</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1.9904458598726119E-3</v>
+      </c>
+      <c r="J108" s="9">
+        <v>2.34192037470726E-3</v>
+      </c>
+      <c r="K108" s="9">
+        <v>2.9940119760479039E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <v>75.36</v>
+      </c>
+      <c r="C109" s="1">
+        <v>74.37</v>
+      </c>
+      <c r="D109" s="1">
+        <v>73.47</v>
+      </c>
+      <c r="E109" s="1">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="F109" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="G109" s="1">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="H109" s="1">
+        <v>73.06</v>
+      </c>
+      <c r="I109" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="J109" s="1">
+        <v>74.049999999999983</v>
+      </c>
+      <c r="K109" s="1">
+        <v>77.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="9">
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="C111" s="9">
+        <v>2.1514051364797632E-3</v>
+      </c>
+      <c r="D111" s="9">
+        <v>2.1777596297808629E-3</v>
+      </c>
+      <c r="E111" s="9">
+        <v>2.1665538253215978E-3</v>
+      </c>
+      <c r="F111" s="9">
+        <v>2.1733224667209996E-3</v>
+      </c>
+      <c r="G111" s="9">
+        <v>2.1822149481723952E-3</v>
+      </c>
+      <c r="H111" s="9">
+        <v>2.1899808376676703E-3</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2.1825126176510706E-3</v>
+      </c>
+      <c r="J111" s="9">
+        <v>2.1607022282241735E-3</v>
+      </c>
+      <c r="K111" s="9">
+        <v>2.071733782208986E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1.5493750000000002</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1.5306249999999999</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.5385416666666665</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1.5337500000000002</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1.5274999999999999</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1.5220833333333335</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1.5272916666666667</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1.5427083333333329</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1.6089583333333335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="C113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D113" s="9">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="E113" s="9">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="F113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="G113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="H113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="I113" s="9">
+        <v>3.3333333333333331E-3</v>
+      </c>
+      <c r="J113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="K113" s="9">
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" s="9">
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2.1514051364797632E-3</v>
+      </c>
+      <c r="D114" s="9">
+        <v>2.1777596297808629E-3</v>
+      </c>
+      <c r="E114" s="9">
+        <v>2.1665538253215978E-3</v>
+      </c>
+      <c r="F114" s="9">
+        <v>2.1733224667209996E-3</v>
+      </c>
+      <c r="G114" s="9">
+        <v>2.1822149481723952E-3</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2.1899808376676703E-3</v>
+      </c>
+      <c r="I114" s="9">
+        <v>2.1825126176510706E-3</v>
+      </c>
+      <c r="J114" s="9">
+        <v>2.1607022282241735E-3</v>
+      </c>
+      <c r="K114" s="9">
+        <v>2.071733782208986E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="3">
+        <v>9.8536110718164132</v>
+      </c>
+      <c r="C115" s="3">
+        <v>9.8253123749444171</v>
+      </c>
+      <c r="D115" s="3">
+        <v>9.850656731404662</v>
+      </c>
+      <c r="E115" s="3">
+        <v>9.6621871755505797</v>
+      </c>
+      <c r="F115" s="3">
+        <v>9.7422794020233408</v>
+      </c>
+      <c r="G115" s="3">
+        <v>9.8369556792265573</v>
+      </c>
+      <c r="H115" s="3">
+        <v>9.8846238090682554</v>
+      </c>
+      <c r="I115" s="3">
+        <v>9.8156918637873254</v>
+      </c>
+      <c r="J115" s="3">
+        <v>9.870261744629687</v>
+      </c>
+      <c r="K115" s="3">
+        <v>9.8551494072191677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="9">
+        <v>7.6184135606060091E-2</v>
+      </c>
+      <c r="C116" s="9">
+        <v>7.6512067126791108E-2</v>
+      </c>
+      <c r="D116" s="9">
+        <v>7.733634906500847E-2</v>
+      </c>
+      <c r="E116" s="9">
+        <v>7.6229225308853441E-2</v>
+      </c>
+      <c r="F116" s="9">
+        <v>7.6785679616582711E-2</v>
+      </c>
+      <c r="G116" s="9">
+        <v>7.7513610708429034E-2</v>
+      </c>
+      <c r="H116" s="9">
+        <v>7.8399216241180819E-2</v>
+      </c>
+      <c r="I116" s="9">
+        <v>7.7934761209897632E-2</v>
+      </c>
+      <c r="J116" s="9">
+        <v>7.9075793624470578E-2</v>
+      </c>
+      <c r="K116" s="9">
+        <v>8.0159235446206872E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" s="9">
+        <v>7.7315955593137003E-3</v>
+      </c>
+      <c r="C117" s="9">
+        <v>7.7872401616364845E-3</v>
+      </c>
+      <c r="D117" s="9">
+        <v>7.8508825526783562E-3</v>
+      </c>
+      <c r="E117" s="9">
+        <v>7.8894378595506433E-3</v>
+      </c>
+      <c r="F117" s="9">
+        <v>7.8816954891106246E-3</v>
+      </c>
+      <c r="G117" s="9">
+        <v>7.8798373435920201E-3</v>
+      </c>
+      <c r="H117" s="9">
+        <v>7.9314314591574613E-3</v>
+      </c>
+      <c r="I117" s="9">
+        <v>7.9398133408628592E-3</v>
+      </c>
+      <c r="J117" s="9">
+        <v>8.011519417658295E-3</v>
+      </c>
+      <c r="K117" s="9">
+        <v>8.1337412690555486E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/1.4.1/данные и обработка.xlsx
+++ b/1.4.1/данные и обработка.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>tср</t>
   </si>
@@ -3143,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3490,7 +3490,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E18" si="3">SUM(H12:K12)</f>
+        <f>SUM(H12:K12)</f>
         <v>73.849999999999994</v>
       </c>
       <c r="F12" s="3">
@@ -3528,7 +3528,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E12:E18" si="3">SUM(H13:K13)</f>
         <v>73.62</v>
       </c>
       <c r="F13" s="3">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15">
-        <f t="shared" ref="F58:G58" si="24">AVERAGE(G48:G57)</f>
+        <f t="shared" ref="G58" si="24">AVERAGE(G48:G57)</f>
         <v>2.4982397654643006E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>65</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -5036,23 +5036,26 @@
         <f>(  D80 - B80*C80  )/(  E80 - B80*B80  )</f>
         <v>0.2673060232081641</v>
       </c>
-      <c r="K70">
-        <f>ATAN(I70)</f>
-        <v>0.26119920631215154</v>
-      </c>
       <c r="L70">
         <f>4*S6*S6</f>
         <v>39.478350912399996</v>
       </c>
       <c r="M70" s="12">
-        <f>L70*K70</f>
-        <v>10.311713924831484</v>
+        <f>L70*I70/S5</f>
+        <v>9.8405542933954244</v>
       </c>
       <c r="N70" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="1">
+        <f>M70</f>
+        <v>9.8405542933954244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -5084,8 +5087,15 @@
         <f>C80 - I70*B80</f>
         <v>-8.3714943363711686E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>Q72*Q70</f>
+        <v>5.2685749665000378E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -5131,8 +5141,15 @@
         <f>SQRT(  I72*I72 + K72*K72  )</f>
         <v>2.8966377683023502E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q72" s="1">
+        <f>K73</f>
+        <v>5.3539412612520097E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -5172,7 +5189,7 @@
         <v>5.3539412612520097E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>5</v>
       </c>
@@ -5215,11 +5232,11 @@
         <v>78</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M73:M74" si="30">SQRT(  I74*I74 + K74*K74  )</f>
+        <f t="shared" ref="M74" si="30">SQRT(  I74*I74 + K74*K74  )</f>
         <v>5.6930193828926413E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>6</v>
       </c>
@@ -5259,7 +5276,7 @@
         <v>5.3539412612520097E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7</v>
       </c>
@@ -5284,7 +5301,7 @@
         <v>6.1465600000000014E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>8</v>
       </c>
@@ -5309,7 +5326,7 @@
         <v>5.3144100000000012E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>9</v>
       </c>
@@ -5334,7 +5351,7 @@
         <v>2.7984099999999994E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>10</v>
       </c>
@@ -5359,7 +5376,7 @@
         <v>1.0497599999999998E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
@@ -5368,578 +5385,28 @@
         <v>0.6583661724175347</v>
       </c>
       <c r="C80" s="16">
-        <f t="shared" ref="C80:F80" si="31">AVERAGE(C70:C79)</f>
+        <f>AVERAGE(C70:C79)</f>
         <v>9.22703E-2</v>
       </c>
       <c r="D80" s="16">
-        <f t="shared" si="31"/>
+        <f>AVERAGE(D70:D79)</f>
         <v>6.5940779922067552E-2</v>
       </c>
       <c r="E80" s="16">
-        <f t="shared" si="31"/>
+        <f>AVERAGE(E70:E79)</f>
         <v>0.45287369624407259</v>
       </c>
       <c r="F80" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="C80:F80" si="31">AVERAGE(F70:F79)</f>
         <v>9.9031968802999991E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" t="s">
-        <v>35</v>
-      </c>
-      <c r="D90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" t="s">
-        <v>48</v>
-      </c>
-      <c r="J90" t="s">
-        <v>49</v>
-      </c>
-      <c r="K90" t="s">
-        <v>8</v>
-      </c>
-      <c r="L90" t="s">
-        <v>39</v>
-      </c>
-      <c r="M90" t="s">
-        <v>40</v>
-      </c>
-      <c r="N90" t="s">
-        <v>43</v>
-      </c>
-      <c r="O90" t="s">
-        <v>44</v>
-      </c>
-      <c r="P90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>0.41</v>
-      </c>
-      <c r="C91">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D91">
-        <v>1.2195121951219512E-3</v>
-      </c>
-      <c r="E91">
-        <v>0.38110000000000005</v>
-      </c>
-      <c r="F91">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G91">
-        <v>1.311991603253739E-3</v>
-      </c>
-      <c r="H91">
-        <v>75.36</v>
-      </c>
-      <c r="I91">
-        <v>0.16</v>
-      </c>
-      <c r="J91">
-        <v>2.1231422505307855E-3</v>
-      </c>
-      <c r="K91">
-        <v>1.57</v>
-      </c>
-      <c r="L91">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M91">
-        <v>2.1231422505307855E-3</v>
-      </c>
-      <c r="N91">
-        <v>9.8536110718164132</v>
-      </c>
-      <c r="O91">
-        <v>7.6184135606060091E-2</v>
-      </c>
-      <c r="P91">
-        <v>7.7315955593137003E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92">
-        <v>0.371</v>
-      </c>
-      <c r="C92">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D92">
-        <v>1.3477088948787063E-3</v>
-      </c>
-      <c r="E92">
-        <v>0.34489999999999998</v>
-      </c>
-      <c r="F92">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G92">
-        <v>1.4496955639315744E-3</v>
-      </c>
-      <c r="H92">
-        <v>74.37</v>
-      </c>
-      <c r="I92">
-        <v>0.16</v>
-      </c>
-      <c r="J92">
-        <v>2.1514051364797632E-3</v>
-      </c>
-      <c r="K92">
-        <v>1.5493750000000002</v>
-      </c>
-      <c r="L92">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M92">
-        <v>2.1514051364797632E-3</v>
-      </c>
-      <c r="N92">
-        <v>9.8253123749444171</v>
-      </c>
-      <c r="O92">
-        <v>7.6512067126791108E-2</v>
-      </c>
-      <c r="P92">
-        <v>7.7872401616364845E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="C93">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D93">
-        <v>1.5105740181268882E-3</v>
-      </c>
-      <c r="E93">
-        <v>0.30769999999999997</v>
-      </c>
-      <c r="F93">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G93">
-        <v>1.6249593760155998E-3</v>
-      </c>
-      <c r="H93">
-        <v>73.47</v>
-      </c>
-      <c r="I93">
-        <v>0.16</v>
-      </c>
-      <c r="J93">
-        <v>2.1777596297808629E-3</v>
-      </c>
-      <c r="K93">
-        <v>1.5306249999999999</v>
-      </c>
-      <c r="L93">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="M93">
-        <v>2.1777596297808629E-3</v>
-      </c>
-      <c r="N93">
-        <v>9.850656731404662</v>
-      </c>
-      <c r="O93">
-        <v>7.733634906500847E-2</v>
-      </c>
-      <c r="P93">
-        <v>7.8508825526783562E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="B94">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C94">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D94">
-        <v>1.724137931034483E-3</v>
-      </c>
-      <c r="E94">
-        <v>0.26950000000000002</v>
-      </c>
-      <c r="F94">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G94">
-        <v>1.8552875695732837E-3</v>
-      </c>
-      <c r="H94">
-        <v>73.849999999999994</v>
-      </c>
-      <c r="I94">
-        <v>0.16</v>
-      </c>
-      <c r="J94">
-        <v>2.1665538253215978E-3</v>
-      </c>
-      <c r="K94">
-        <v>1.5385416666666665</v>
-      </c>
-      <c r="L94">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="M94">
-        <v>2.1665538253215978E-3</v>
-      </c>
-      <c r="N94">
-        <v>9.6621871755505797</v>
-      </c>
-      <c r="O94">
-        <v>7.6229225308853441E-2</v>
-      </c>
-      <c r="P94">
-        <v>7.8894378595506433E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>5</v>
-      </c>
-      <c r="B95">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="C95">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D95">
-        <v>1.6611295681063123E-3</v>
-      </c>
-      <c r="E95">
-        <v>0.27939999999999998</v>
-      </c>
-      <c r="F95">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G95">
-        <v>1.7895490336435221E-3</v>
-      </c>
-      <c r="H95">
-        <v>73.62</v>
-      </c>
-      <c r="I95">
-        <v>0.16</v>
-      </c>
-      <c r="J95">
-        <v>2.1733224667209996E-3</v>
-      </c>
-      <c r="K95">
-        <v>1.5337500000000002</v>
-      </c>
-      <c r="L95">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M95">
-        <v>2.1733224667209996E-3</v>
-      </c>
-      <c r="N95">
-        <v>9.7422794020233408</v>
-      </c>
-      <c r="O95">
-        <v>7.6785679616582711E-2</v>
-      </c>
-      <c r="P95">
-        <v>7.8816954891106246E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>6</v>
-      </c>
-      <c r="B96">
-        <v>0.31</v>
-      </c>
-      <c r="C96">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D96">
-        <v>1.6129032258064516E-3</v>
-      </c>
-      <c r="E96">
-        <v>0.2878</v>
-      </c>
-      <c r="F96">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G96">
-        <v>1.7373175816539264E-3</v>
-      </c>
-      <c r="H96">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="I96">
-        <v>0.16</v>
-      </c>
-      <c r="J96">
-        <v>2.1822149481723952E-3</v>
-      </c>
-      <c r="K96">
-        <v>1.5274999999999999</v>
-      </c>
-      <c r="L96">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M96">
-        <v>2.1822149481723952E-3</v>
-      </c>
-      <c r="N96">
-        <v>9.8369556792265573</v>
-      </c>
-      <c r="O96">
-        <v>7.7513610708429034E-2</v>
-      </c>
-      <c r="P96">
-        <v>7.8798373435920201E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>7</v>
-      </c>
-      <c r="B97">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C97">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D97">
-        <v>1.7857142857142857E-3</v>
-      </c>
-      <c r="E97">
-        <v>0.26</v>
-      </c>
-      <c r="F97">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G97">
-        <v>1.923076923076923E-3</v>
-      </c>
-      <c r="H97">
-        <v>73.06</v>
-      </c>
-      <c r="I97">
-        <v>0.16</v>
-      </c>
-      <c r="J97">
-        <v>2.1899808376676703E-3</v>
-      </c>
-      <c r="K97">
-        <v>1.5220833333333335</v>
-      </c>
-      <c r="L97">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M97">
-        <v>2.1899808376676703E-3</v>
-      </c>
-      <c r="N97">
-        <v>9.8846238090682554</v>
-      </c>
-      <c r="O97">
-        <v>7.8399216241180819E-2</v>
-      </c>
-      <c r="P97">
-        <v>7.9314314591574613E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>8</v>
-      </c>
-      <c r="B98">
-        <v>0.27</v>
-      </c>
-      <c r="C98">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D98">
-        <v>1.8518518518518517E-3</v>
-      </c>
-      <c r="E98">
-        <v>0.25119999999999998</v>
-      </c>
-      <c r="F98">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G98">
-        <v>1.9904458598726119E-3</v>
-      </c>
-      <c r="H98">
-        <v>73.31</v>
-      </c>
-      <c r="I98">
-        <v>0.16</v>
-      </c>
-      <c r="J98">
-        <v>2.1825126176510706E-3</v>
-      </c>
-      <c r="K98">
-        <v>1.5272916666666667</v>
-      </c>
-      <c r="L98">
-        <v>3.3333333333333331E-3</v>
-      </c>
-      <c r="M98">
-        <v>2.1825126176510706E-3</v>
-      </c>
-      <c r="N98">
-        <v>9.8156918637873254</v>
-      </c>
-      <c r="O98">
-        <v>7.7934761209897632E-2</v>
-      </c>
-      <c r="P98">
-        <v>7.9398133408628592E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>9</v>
-      </c>
-      <c r="B99">
-        <v>0.23</v>
-      </c>
-      <c r="C99">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D99">
-        <v>2.1739130434782609E-3</v>
-      </c>
-      <c r="E99">
-        <v>0.2135</v>
-      </c>
-      <c r="F99">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G99">
-        <v>2.34192037470726E-3</v>
-      </c>
-      <c r="H99">
-        <v>74.049999999999983</v>
-      </c>
-      <c r="I99">
-        <v>0.16</v>
-      </c>
-      <c r="J99">
-        <v>2.1607022282241735E-3</v>
-      </c>
-      <c r="K99">
-        <v>1.5427083333333329</v>
-      </c>
-      <c r="L99">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M99">
-        <v>2.1607022282241735E-3</v>
-      </c>
-      <c r="N99">
-        <v>9.870261744629687</v>
-      </c>
-      <c r="O99">
-        <v>7.9075793624470578E-2</v>
-      </c>
-      <c r="P99">
-        <v>8.011519417658295E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>10</v>
-      </c>
-      <c r="B100">
-        <v>0.18</v>
-      </c>
-      <c r="C100">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D100">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="E100">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F100">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G100">
-        <v>2.9940119760479039E-3</v>
-      </c>
-      <c r="H100">
-        <v>77.23</v>
-      </c>
-      <c r="I100">
-        <v>0.16</v>
-      </c>
-      <c r="J100">
-        <v>2.071733782208986E-3</v>
-      </c>
-      <c r="K100">
-        <v>1.6089583333333335</v>
-      </c>
-      <c r="L100">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="M100">
-        <v>2.071733782208986E-3</v>
-      </c>
-      <c r="N100">
-        <v>9.8551494072191677</v>
-      </c>
-      <c r="O100">
-        <v>8.0159235446206872E-2</v>
-      </c>
-      <c r="P100">
-        <v>8.1337412690555486E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -5974,7 +5441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +5476,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
@@ -6044,7 +5511,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>36</v>
       </c>
@@ -6079,7 +5546,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -6114,7 +5581,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>37</v>
       </c>
@@ -6149,7 +5616,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>38</v>
       </c>
@@ -6184,7 +5651,7 @@
         <v>2.9940119760479039E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -6219,7 +5686,7 @@
         <v>77.23</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>48</v>
       </c>
@@ -6254,7 +5721,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>49</v>
       </c>
@@ -6289,7 +5756,7 @@
         <v>2.071733782208986E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
